--- a/Fase 2/Evidencias Proyecto/Evidencias de documentación/Fase 1: Análisis y toma de requisitos/Matriz RACI Scheduler.xlsx
+++ b/Fase 2/Evidencias Proyecto/Evidencias de documentación/Fase 1: Análisis y toma de requisitos/Matriz RACI Scheduler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felip\Desktop\Documentacion capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778959EA-A5A0-4801-AD07-C8169C07B673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068AEA5-8057-4ADC-805B-CA22A1952667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2CCAC5A7-32D3-4B7C-AFFC-6EE4A62EE083}"/>
   </bookViews>
@@ -627,15 +627,12 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -646,8 +643,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -657,16 +658,33 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -674,24 +692,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1047,11 +1047,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1075,16 +1075,16 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>45517</v>
+        <v>45551</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>9</v>
@@ -1115,27 +1115,27 @@
       <c r="E4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="16" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="30"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="28"/>
-      <c r="I5" s="32" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="29"/>
+      <c r="I5" s="18" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="10" t="s">
@@ -1148,460 +1148,460 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="36" t="s">
+      <c r="C6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="37"/>
+      <c r="K6" s="34"/>
       <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="17" t="s">
+      <c r="B7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="40"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="M7" s="17"/>
+      <c r="M7" s="31"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="41"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="42" t="s">
         <v>20</v>
       </c>
       <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="15" t="s">
+      <c r="B9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="15"/>
+      <c r="K9" s="32"/>
       <c r="L9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="B10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="24" t="s">
+      <c r="B13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="25" t="s">
+      <c r="C14" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="24" t="s">
+      <c r="B15" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="25" t="s">
+      <c r="B16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="B17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="25" t="s">
+      <c r="B20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="B21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="15" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="25" t="s">
+      <c r="B22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="24" t="s">
+      <c r="B24" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="B25" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="24" t="s">
+      <c r="C27" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="25" t="s">
+      <c r="B28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="24" t="s">
+      <c r="C29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" s="24" t="s">
+      <c r="B31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="15" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L7:M7"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="J6:K8"/>
     <mergeCell ref="I6:I8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="L7:M7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
